--- a/Class_1/Ch1_Practice.xlsx
+++ b/Class_1/Ch1_Practice.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tntprizz/work/Excel_Tutorial/Class_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD8745-FC99-AE4D-AAB5-E65E63836615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5849F0-A4A6-514E-959A-8304CF9980C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{7CE1282D-C3F2-BC49-9EC5-F9BB0AFD40F2}"/>
+    <workbookView xWindow="1040" yWindow="860" windowWidth="32980" windowHeight="21380" activeTab="2" xr2:uid="{7CE1282D-C3F2-BC49-9EC5-F9BB0AFD40F2}"/>
   </bookViews>
   <sheets>
     <sheet name="DSE_Results" sheetId="1" r:id="rId1"/>
@@ -950,6 +950,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,44 +980,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1345,10 +1345,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611E2C09-F2D2-6C4A-91BF-380CC43AB7C3}">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:RI114514"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="143" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1363,13 +1364,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1">
       <c r="A2" s="11" t="s">
@@ -1389,89 +1390,89 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" thickTop="1">
-      <c r="A3" s="41">
+      <c r="A3" s="45">
         <v>2024</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="43"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="41"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="44"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="41"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="45"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="41"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="46"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="41"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="46"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="41"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="44"/>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="41"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="44"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="41"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -1484,93 +1485,93 @@
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="41"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="49" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="45"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="44"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="41"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="46"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="41"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="44"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="46"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="44"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="B18" s="55"/>
+      <c r="B18" s="42"/>
     </row>
     <row r="19" spans="1:6" ht="17" thickBot="1">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6" ht="17" thickBot="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="47"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="47"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
     </row>
     <row r="114512" spans="477:477">
       <c r="RI114512" s="1" t="s">
@@ -1578,12 +1579,12 @@
       </c>
     </row>
     <row r="114513" spans="477:477">
-      <c r="RI114513" s="54" t="s">
+      <c r="RI114513" s="41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="114514" spans="477:477">
-      <c r="RI114514" s="54" t="s">
+      <c r="RI114514" s="41" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1619,10 +1620,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD99A32-4BB5-9B4E-846F-32CAA0E6AFB1}">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1642,16 +1644,16 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" ht="19">
       <c r="A2" s="16" t="s">
@@ -1665,16 +1667,16 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="18"/>
@@ -1694,7 +1696,7 @@
       <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="52"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="20" t="s">
         <v>47</v>
       </c>
@@ -1704,36 +1706,36 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="50">
+      <c r="G4" s="56">
         <v>1961</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="56">
         <v>1971</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="56">
         <v>1981</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="56">
         <v>1991</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="56">
         <v>2001</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="56">
         <v>2006</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="56">
         <v>2011</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="56">
         <v>2016</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="56">
         <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="53"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -1743,15 +1745,15 @@
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="18"/>
@@ -3666,11 +3668,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="K4:K5"/>
@@ -3678,6 +3675,11 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3689,10 +3691,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ACCC69-6985-9A47-BAA9-56A984CAFD3F}">
+  <sheetPr codeName="工作表3"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3704,45 +3707,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="34"/>
-      <c r="D3" s="47"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="47"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17" thickBot="1">
       <c r="A5" s="38"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="47"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5">
